--- a/2019/D/floor.xlsx
+++ b/2019/D/floor.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F96176-7649-4C74-B30D-41F8A9CCF7EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="708" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,12 +17,8 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -58,8 +55,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -89,7 +87,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -164,6 +162,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -199,6 +214,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -374,1028 +406,1031 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1">
-        <v>2</v>
-      </c>
-      <c r="B1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1">
         <v>864</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
         <v>848</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
         <v>855</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
         <v>803</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
         <v>811</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
         <v>845</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
         <v>802</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1">
         <v>801</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
         <v>843</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1">
         <v>836</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1">
         <v>800</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1">
         <v>818</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1">
         <v>825</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1">
         <v>835</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1">
         <v>830</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1">
         <v>909</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1">
         <v>912</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1">
         <v>913</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1">
         <v>917</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1">
         <v>924</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1">
         <v>931</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1">
         <v>936</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1">
         <v>940</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1">
         <v>952</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25">
-        <v>2</v>
-      </c>
-      <c r="B25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1">
         <v>900</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1">
         <v>558</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1">
         <v>552</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1">
         <v>557</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1">
         <v>505</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1">
         <v>507</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1">
         <v>517</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1">
         <v>548</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1">
         <v>544</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1">
         <v>535</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1">
         <v>503</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1">
         <v>516</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1">
         <v>531</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1">
         <v>526</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1">
         <v>606</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1">
         <v>605</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1">
         <v>617</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1">
         <v>632</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
+      <c r="B44" s="1">
         <v>633</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45">
-        <v>1</v>
-      </c>
-      <c r="B45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1">
         <v>635</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+      <c r="B46" s="1">
         <v>636</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47">
-        <v>1</v>
-      </c>
-      <c r="B47">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>1</v>
+      </c>
+      <c r="B47" s="1">
         <v>640</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48">
-        <v>1</v>
-      </c>
-      <c r="B48">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>1</v>
+      </c>
+      <c r="B48" s="1">
         <v>641</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49">
-        <v>1</v>
-      </c>
-      <c r="B49">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>1</v>
+      </c>
+      <c r="B49" s="1">
         <v>656</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>1</v>
+      </c>
+      <c r="B50" s="1">
         <v>645</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51">
-        <v>1</v>
-      </c>
-      <c r="B51">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>1</v>
+      </c>
+      <c r="B51" s="1">
         <v>661</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52">
-        <v>1</v>
-      </c>
-      <c r="B52">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>1</v>
+      </c>
+      <c r="B52" s="1">
         <v>663</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53">
-        <v>1</v>
-      </c>
-      <c r="B53">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>1</v>
+      </c>
+      <c r="B53" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54">
-        <v>1</v>
-      </c>
-      <c r="B54">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>1</v>
+      </c>
+      <c r="B54" s="1">
         <v>601</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55">
-        <v>1</v>
-      </c>
-      <c r="B55">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>1</v>
+      </c>
+      <c r="B55" s="1">
         <v>703</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56">
-        <v>1</v>
-      </c>
-      <c r="B56">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>1</v>
+      </c>
+      <c r="B56" s="1">
         <v>706</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57">
-        <v>1</v>
-      </c>
-      <c r="B57">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>1</v>
+      </c>
+      <c r="B57" s="1">
         <v>702</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58">
-        <v>1</v>
-      </c>
-      <c r="B58">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>1</v>
+      </c>
+      <c r="B58" s="1">
         <v>709</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59">
-        <v>1</v>
-      </c>
-      <c r="B59">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>1</v>
+      </c>
+      <c r="B59" s="1">
         <v>710</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60">
-        <v>1</v>
-      </c>
-      <c r="B60">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>1</v>
+      </c>
+      <c r="B60" s="1">
         <v>701</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61">
-        <v>1</v>
-      </c>
-      <c r="B61">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>1</v>
+      </c>
+      <c r="B61" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62">
-        <v>1</v>
-      </c>
-      <c r="B62">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>1</v>
+      </c>
+      <c r="B62" s="1">
         <v>715</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63">
-        <v>1</v>
-      </c>
-      <c r="B63">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>1</v>
+      </c>
+      <c r="B63" s="1">
         <v>712</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64">
-        <v>1</v>
-      </c>
-      <c r="B64">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>1</v>
+      </c>
+      <c r="B64" s="1">
         <v>716</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65">
-        <v>1</v>
-      </c>
-      <c r="B65">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>1</v>
+      </c>
+      <c r="B65" s="1">
         <v>717</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66">
-        <v>1</v>
-      </c>
-      <c r="B66">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>1</v>
+      </c>
+      <c r="B66" s="1">
         <v>720</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67">
-        <v>1</v>
-      </c>
-      <c r="B67">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>1</v>
+      </c>
+      <c r="B67" s="1">
         <v>718</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68">
-        <v>1</v>
-      </c>
-      <c r="B68">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>1</v>
+      </c>
+      <c r="B68" s="1">
         <v>564</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69">
-        <v>0</v>
-      </c>
-      <c r="B69">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>0</v>
+      </c>
+      <c r="B69" s="1">
         <v>201</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70">
-        <v>0</v>
-      </c>
-      <c r="B70">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>0</v>
+      </c>
+      <c r="B70" s="1">
         <v>212</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71">
-        <v>0</v>
-      </c>
-      <c r="B71">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>0</v>
+      </c>
+      <c r="B71" s="1">
         <v>218</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A72">
-        <v>0</v>
-      </c>
-      <c r="B72">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>0</v>
+      </c>
+      <c r="B72" s="1">
         <v>208</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A73">
-        <v>0</v>
-      </c>
-      <c r="B73">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>0</v>
+      </c>
+      <c r="B73" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A74">
-        <v>0</v>
-      </c>
-      <c r="B74">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>0</v>
+      </c>
+      <c r="B74" s="1">
         <v>219</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A75">
-        <v>0</v>
-      </c>
-      <c r="B75">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>0</v>
+      </c>
+      <c r="B75" s="1">
         <v>230</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A76">
-        <v>0</v>
-      </c>
-      <c r="B76">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>0</v>
+      </c>
+      <c r="B76" s="1">
         <v>226</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A77">
-        <v>0</v>
-      </c>
-      <c r="B77">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>0</v>
+      </c>
+      <c r="B77" s="1">
         <v>229</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A78">
-        <v>0</v>
-      </c>
-      <c r="B78">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>0</v>
+      </c>
+      <c r="B78" s="1">
         <v>231</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A79">
-        <v>0</v>
-      </c>
-      <c r="B79">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>0</v>
+      </c>
+      <c r="B79" s="1">
         <v>312</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A80">
-        <v>0</v>
-      </c>
-      <c r="B80">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>0</v>
+      </c>
+      <c r="B80" s="1">
         <v>316</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A81">
-        <v>0</v>
-      </c>
-      <c r="B81">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>0</v>
+      </c>
+      <c r="B81" s="1">
         <v>317</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A82">
-        <v>0</v>
-      </c>
-      <c r="B82">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>0</v>
+      </c>
+      <c r="B82" s="1">
         <v>321</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A83">
-        <v>0</v>
-      </c>
-      <c r="B83">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>0</v>
+      </c>
+      <c r="B83" s="1">
         <v>323</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A84">
-        <v>0</v>
-      </c>
-      <c r="B84">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>0</v>
+      </c>
+      <c r="B84" s="1">
         <v>328</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A85">
-        <v>-1</v>
-      </c>
-      <c r="B85">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B85" s="1">
         <v>338</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A86">
-        <v>0</v>
-      </c>
-      <c r="B86">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>0</v>
+      </c>
+      <c r="B86" s="1">
         <v>337</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A87">
-        <v>0</v>
-      </c>
-      <c r="B87">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>0</v>
+      </c>
+      <c r="B87" s="1">
         <v>339</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A88">
-        <v>0</v>
-      </c>
-      <c r="B88">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>0</v>
+      </c>
+      <c r="B88" s="1">
         <v>348</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A89">
-        <v>0</v>
-      </c>
-      <c r="B89">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>0</v>
+      </c>
+      <c r="B89" s="1">
         <v>305</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A90">
-        <v>0</v>
-      </c>
-      <c r="B90">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>0</v>
+      </c>
+      <c r="B90" s="1">
         <v>308</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A91">
-        <v>0</v>
-      </c>
-      <c r="B91">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>0</v>
+      </c>
+      <c r="B91" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A92">
-        <v>0</v>
-      </c>
-      <c r="B92">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>0</v>
+      </c>
+      <c r="B92" s="1">
         <v>347</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A93">
-        <v>0</v>
-      </c>
-      <c r="B93">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>0</v>
+      </c>
+      <c r="B93" s="1">
         <v>410</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A94">
-        <v>0</v>
-      </c>
-      <c r="B94">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>0</v>
+      </c>
+      <c r="B94" s="1">
         <v>408</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A95">
-        <v>0</v>
-      </c>
-      <c r="B95">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>0</v>
+      </c>
+      <c r="B95" s="1">
         <v>423</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A96">
-        <v>0</v>
-      </c>
-      <c r="B96">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>0</v>
+      </c>
+      <c r="B96" s="1">
         <v>419</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A97">
-        <v>0</v>
-      </c>
-      <c r="B97">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>0</v>
+      </c>
+      <c r="B97" s="1">
         <v>417</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A98">
-        <v>0</v>
-      </c>
-      <c r="B98">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>0</v>
+      </c>
+      <c r="B98" s="1">
         <v>413</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A99">
-        <v>0</v>
-      </c>
-      <c r="B99">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>0</v>
+      </c>
+      <c r="B99" s="1">
         <v>418</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A100">
-        <v>0</v>
-      </c>
-      <c r="B100">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>0</v>
+      </c>
+      <c r="B100" s="1">
         <v>406</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A101">
-        <v>0</v>
-      </c>
-      <c r="B101">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>0</v>
+      </c>
+      <c r="B101" s="1">
         <v>403</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A102">
-        <v>0</v>
-      </c>
-      <c r="B102">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>0</v>
+      </c>
+      <c r="B102" s="1">
         <v>405</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A103">
-        <v>0</v>
-      </c>
-      <c r="B103">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>0</v>
+      </c>
+      <c r="B103" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A104">
-        <v>0</v>
-      </c>
-      <c r="B104">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>0</v>
+      </c>
+      <c r="B104" s="1">
         <v>402</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A105">
-        <v>0</v>
-      </c>
-      <c r="B105">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>0</v>
+      </c>
+      <c r="B105" s="1">
         <v>427</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A106">
-        <v>0</v>
-      </c>
-      <c r="B106">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>0</v>
+      </c>
+      <c r="B106" s="1">
         <v>424</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A107">
-        <v>-1</v>
-      </c>
-      <c r="B107">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B107" s="1">
         <v>104</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A108">
-        <v>-1</v>
-      </c>
-      <c r="B108">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B108" s="1">
         <v>101</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A109">
-        <v>-1</v>
-      </c>
-      <c r="B109">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B109" s="1">
         <v>102</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A110">
-        <v>-1</v>
-      </c>
-      <c r="B110">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B110" s="1">
         <v>105</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A111">
-        <v>-1</v>
-      </c>
-      <c r="B111">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B111" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A112">
-        <v>-1</v>
-      </c>
-      <c r="B112">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B112" s="1">
         <v>131</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A113">
-        <v>-1</v>
-      </c>
-      <c r="B113">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B113" s="1">
         <v>130</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A114">
-        <v>-1</v>
-      </c>
-      <c r="B114">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B114" s="1">
         <v>132</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A115">
-        <v>-1</v>
-      </c>
-      <c r="B115">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B115" s="1">
         <v>127</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A116">
-        <v>-1</v>
-      </c>
-      <c r="B116">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B116" s="1">
         <v>133</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A117">
-        <v>-1</v>
-      </c>
-      <c r="B117">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B117" s="1">
         <v>135</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A118">
-        <v>-1</v>
-      </c>
-      <c r="B118">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B118" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A119">
-        <v>-1</v>
-      </c>
-      <c r="B119">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B119" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A120">
-        <v>-1</v>
-      </c>
-      <c r="B120">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B120" s="1">
         <v>169</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A121">
-        <v>-1</v>
-      </c>
-      <c r="B121">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B121" s="1">
         <v>164</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A122">
-        <v>-1</v>
-      </c>
-      <c r="B122">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B122" s="1">
         <v>186</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A123">
-        <v>-1</v>
-      </c>
-      <c r="B123">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B123" s="1">
         <v>183</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A124">
-        <v>-1</v>
-      </c>
-      <c r="B124">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B124" s="1">
         <v>181</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A125">
-        <v>-1</v>
-      </c>
-      <c r="B125">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B125" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A126">
-        <v>-1</v>
-      </c>
-      <c r="B126">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B126" s="1">
         <v>174</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A127">
-        <v>-1</v>
-      </c>
-      <c r="B127">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B127" s="1">
         <v>173</v>
       </c>
     </row>

--- a/2019/D/floor.xlsx
+++ b/2019/D/floor.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F96176-7649-4C74-B30D-41F8A9CCF7EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="708" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="705" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -87,7 +86,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -162,23 +161,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -214,23 +196,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -406,19 +371,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <v>2</v>
       </c>
@@ -426,7 +391,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -434,7 +399,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -442,7 +407,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -450,7 +415,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -458,7 +423,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -466,7 +431,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -474,7 +439,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -482,7 +447,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -490,7 +455,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -498,7 +463,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -506,7 +471,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -514,7 +479,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -522,7 +487,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -530,7 +495,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -538,7 +503,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -546,7 +511,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -554,7 +519,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -562,7 +527,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -570,7 +535,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -578,7 +543,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>2</v>
       </c>
@@ -586,7 +551,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -594,7 +559,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -602,7 +567,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -610,7 +575,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -618,7 +583,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -626,7 +591,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -634,7 +599,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -642,7 +607,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -650,7 +615,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -658,7 +623,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -666,7 +631,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -674,7 +639,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -682,7 +647,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -690,7 +655,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -698,7 +663,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -706,7 +671,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -714,7 +679,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -722,7 +687,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -730,7 +695,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>1</v>
       </c>
@@ -738,7 +703,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>1</v>
       </c>
@@ -746,7 +711,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>1</v>
       </c>
@@ -754,7 +719,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>1</v>
       </c>
@@ -762,7 +727,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>1</v>
       </c>
@@ -770,7 +735,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>1</v>
       </c>
@@ -778,7 +743,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>1</v>
       </c>
@@ -786,7 +751,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>1</v>
       </c>
@@ -794,7 +759,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>1</v>
       </c>
@@ -802,7 +767,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>1</v>
       </c>
@@ -810,7 +775,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>1</v>
       </c>
@@ -818,7 +783,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>1</v>
       </c>
@@ -826,7 +791,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>1</v>
       </c>
@@ -834,7 +799,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>1</v>
       </c>
@@ -842,7 +807,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>1</v>
       </c>
@@ -850,7 +815,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>1</v>
       </c>
@@ -858,7 +823,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>1</v>
       </c>
@@ -866,7 +831,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>1</v>
       </c>
@@ -874,7 +839,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>1</v>
       </c>
@@ -882,7 +847,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>1</v>
       </c>
@@ -890,7 +855,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>1</v>
       </c>
@@ -898,7 +863,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>1</v>
       </c>
@@ -906,7 +871,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>1</v>
       </c>
@@ -914,7 +879,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>1</v>
       </c>
@@ -922,7 +887,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>1</v>
       </c>
@@ -930,7 +895,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>1</v>
       </c>
@@ -938,7 +903,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>1</v>
       </c>
@@ -946,7 +911,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>1</v>
       </c>
@@ -954,7 +919,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>1</v>
       </c>
@@ -962,7 +927,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>0</v>
       </c>
@@ -970,7 +935,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>0</v>
       </c>
@@ -978,7 +943,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>0</v>
       </c>
@@ -986,7 +951,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>0</v>
       </c>
@@ -994,7 +959,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>0</v>
       </c>
@@ -1002,7 +967,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>0</v>
       </c>
@@ -1010,7 +975,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>0</v>
       </c>
@@ -1018,7 +983,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>0</v>
       </c>
@@ -1026,7 +991,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>0</v>
       </c>
@@ -1034,7 +999,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>0</v>
       </c>
@@ -1042,7 +1007,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>0</v>
       </c>
@@ -1050,7 +1015,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>0</v>
       </c>
@@ -1058,7 +1023,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>0</v>
       </c>
@@ -1066,7 +1031,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>0</v>
       </c>
@@ -1074,7 +1039,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>0</v>
       </c>
@@ -1082,7 +1047,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>0</v>
       </c>
@@ -1090,7 +1055,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>-1</v>
       </c>
@@ -1098,7 +1063,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>0</v>
       </c>
@@ -1106,7 +1071,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>0</v>
       </c>
@@ -1114,7 +1079,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>0</v>
       </c>
@@ -1122,7 +1087,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>0</v>
       </c>
@@ -1130,7 +1095,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>0</v>
       </c>
@@ -1138,7 +1103,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>0</v>
       </c>
@@ -1146,7 +1111,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>0</v>
       </c>
@@ -1154,7 +1119,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>0</v>
       </c>
@@ -1162,7 +1127,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>0</v>
       </c>
@@ -1170,7 +1135,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>0</v>
       </c>
@@ -1178,7 +1143,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>0</v>
       </c>
@@ -1186,7 +1151,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>0</v>
       </c>
@@ -1194,7 +1159,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>0</v>
       </c>
@@ -1202,7 +1167,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>0</v>
       </c>
@@ -1210,7 +1175,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>0</v>
       </c>
@@ -1218,7 +1183,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>0</v>
       </c>
@@ -1226,7 +1191,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>0</v>
       </c>
@@ -1234,7 +1199,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>0</v>
       </c>
@@ -1242,7 +1207,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>0</v>
       </c>
@@ -1250,7 +1215,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>0</v>
       </c>
@@ -1258,7 +1223,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <v>0</v>
       </c>
@@ -1266,7 +1231,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <v>-1</v>
       </c>
@@ -1274,7 +1239,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <v>-1</v>
       </c>
@@ -1282,7 +1247,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <v>-1</v>
       </c>
@@ -1290,7 +1255,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
         <v>-1</v>
       </c>
@@ -1298,7 +1263,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <v>-1</v>
       </c>
@@ -1306,7 +1271,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
         <v>-1</v>
       </c>
@@ -1314,7 +1279,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
         <v>-1</v>
       </c>
@@ -1322,7 +1287,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
         <v>-1</v>
       </c>
@@ -1330,7 +1295,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
         <v>-1</v>
       </c>
@@ -1338,7 +1303,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
         <v>-1</v>
       </c>
@@ -1346,7 +1311,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
         <v>-1</v>
       </c>
@@ -1354,7 +1319,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
         <v>-1</v>
       </c>
@@ -1362,7 +1327,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
         <v>-1</v>
       </c>
@@ -1370,7 +1335,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
         <v>-1</v>
       </c>
@@ -1378,7 +1343,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
         <v>-1</v>
       </c>
@@ -1386,7 +1351,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
         <v>-1</v>
       </c>
@@ -1394,7 +1359,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
         <v>-1</v>
       </c>
@@ -1402,7 +1367,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
         <v>-1</v>
       </c>
@@ -1410,7 +1375,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
         <v>-1</v>
       </c>
@@ -1418,7 +1383,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
         <v>-1</v>
       </c>
@@ -1426,7 +1391,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
         <v>-1</v>
       </c>
